--- a/datasets/kpcb_caz_avi_com.xlsx
+++ b/datasets/kpcb_caz_avi_com.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{157251B5-E8D6-FD4E-96A1-E9B32E56ADEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A5A67-6E5C-634E-91DE-DC8E6F0329C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1820" yWindow="4620" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1820" yWindow="3860" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KPCBzavicefta_commercial_new" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -881,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="A2" sqref="A2:F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2229,6 +2229,26 @@
         <v>0.625</v>
       </c>
     </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>15</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <v>10000</v>
+      </c>
+      <c r="D68">
+        <v>24</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
